--- a/Cleaned_Tagoloan/Daily_Data.xlsx
+++ b/Cleaned_Tagoloan/Daily_Data.xlsx
@@ -19,103 +19,103 @@
     <t>Water_Level</t>
   </si>
   <si>
-    <t>RG0_Diff</t>
+    <t>Rain Gauge</t>
   </si>
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>2021/10/1</t>
-  </si>
-  <si>
-    <t>2021/10/2</t>
-  </si>
-  <si>
-    <t>2021/10/3</t>
-  </si>
-  <si>
-    <t>2021/10/4</t>
-  </si>
-  <si>
-    <t>2021/10/5</t>
-  </si>
-  <si>
-    <t>2021/10/6</t>
-  </si>
-  <si>
-    <t>2021/10/7</t>
-  </si>
-  <si>
-    <t>2021/10/8</t>
-  </si>
-  <si>
-    <t>2021/10/9</t>
-  </si>
-  <si>
-    <t>2021/10/10</t>
-  </si>
-  <si>
-    <t>2021/10/11</t>
-  </si>
-  <si>
-    <t>2021/10/12</t>
-  </si>
-  <si>
-    <t>2021/10/13</t>
-  </si>
-  <si>
-    <t>2021/10/14</t>
-  </si>
-  <si>
-    <t>2021/10/15</t>
-  </si>
-  <si>
-    <t>2021/10/16</t>
-  </si>
-  <si>
-    <t>2021/10/17</t>
-  </si>
-  <si>
-    <t>2021/10/18</t>
-  </si>
-  <si>
-    <t>2021/10/19</t>
-  </si>
-  <si>
-    <t>2021/10/20</t>
-  </si>
-  <si>
-    <t>2021/10/21</t>
-  </si>
-  <si>
-    <t>2021/10/22</t>
-  </si>
-  <si>
-    <t>2021/10/23</t>
-  </si>
-  <si>
-    <t>2021/10/24</t>
-  </si>
-  <si>
-    <t>2021/10/25</t>
-  </si>
-  <si>
-    <t>2021/10/26</t>
-  </si>
-  <si>
-    <t>2021/10/27</t>
-  </si>
-  <si>
-    <t>2021/10/28</t>
-  </si>
-  <si>
-    <t>2021/10/29</t>
-  </si>
-  <si>
-    <t>2021/10/30</t>
-  </si>
-  <si>
-    <t>2021/10/31</t>
+    <t>2021/12/01</t>
+  </si>
+  <si>
+    <t>2021/12/02</t>
+  </si>
+  <si>
+    <t>2021/12/03</t>
+  </si>
+  <si>
+    <t>2021/12/04</t>
+  </si>
+  <si>
+    <t>2021/12/05</t>
+  </si>
+  <si>
+    <t>2021/12/06</t>
+  </si>
+  <si>
+    <t>2021/12/07</t>
+  </si>
+  <si>
+    <t>2021/12/08</t>
+  </si>
+  <si>
+    <t>2021/12/09</t>
+  </si>
+  <si>
+    <t>2021/12/10</t>
+  </si>
+  <si>
+    <t>2021/12/11</t>
+  </si>
+  <si>
+    <t>2021/12/12</t>
+  </si>
+  <si>
+    <t>2021/12/13</t>
+  </si>
+  <si>
+    <t>2021/12/14</t>
+  </si>
+  <si>
+    <t>2021/12/15</t>
+  </si>
+  <si>
+    <t>2021/12/16</t>
+  </si>
+  <si>
+    <t>2021/12/17</t>
+  </si>
+  <si>
+    <t>2021/12/18</t>
+  </si>
+  <si>
+    <t>2021/12/19</t>
+  </si>
+  <si>
+    <t>2021/12/20</t>
+  </si>
+  <si>
+    <t>2021/12/21</t>
+  </si>
+  <si>
+    <t>2021/12/22</t>
+  </si>
+  <si>
+    <t>2021/12/23</t>
+  </si>
+  <si>
+    <t>2021/12/24</t>
+  </si>
+  <si>
+    <t>2021/12/25</t>
+  </si>
+  <si>
+    <t>2021/12/26</t>
+  </si>
+  <si>
+    <t>2021/12/27</t>
+  </si>
+  <si>
+    <t>2021/12/28</t>
+  </si>
+  <si>
+    <t>2021/12/29</t>
+  </si>
+  <si>
+    <t>2021/12/30</t>
+  </si>
+  <si>
+    <t>2021/12/31</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2.800815</v>
+        <v>1.034065</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.01569</v>
+        <v>1.01019</v>
       </c>
       <c r="C3">
-        <v>29.60000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -517,10 +517,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2.514315</v>
+        <v>0.96244</v>
       </c>
       <c r="C4">
-        <v>3.200000000000045</v>
+        <v>2.800000000000011</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -528,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2.944065</v>
+        <v>0.9863149999999988</v>
       </c>
       <c r="C5">
-        <v>10.39999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -539,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2.82469</v>
+        <v>0.96244</v>
       </c>
       <c r="C6">
-        <v>10.39999999999998</v>
+        <v>3.399999999999977</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -550,10 +550,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3.469315</v>
+        <v>0.96244</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -561,10 +561,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2.44269</v>
+        <v>0.938565</v>
       </c>
       <c r="C8">
-        <v>0.2000000000000455</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -572,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2.609815</v>
+        <v>0.96244</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -583,10 +583,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>2.53819</v>
+        <v>1.034065</v>
       </c>
       <c r="C10">
-        <v>4.600000000000023</v>
+        <v>21.80000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -594,10 +594,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>2.63369</v>
+        <v>1.10569</v>
       </c>
       <c r="C11">
-        <v>3.399999999999999</v>
+        <v>6.399999999999977</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -605,10 +605,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>2.275565</v>
+        <v>1.081815</v>
       </c>
       <c r="C12">
-        <v>0.8000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -616,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>2.29944</v>
+        <v>1.10569</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2.705315</v>
+        <v>0.96244</v>
       </c>
       <c r="C14">
-        <v>1.799999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -638,10 +638,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>2.371065</v>
+        <v>0.96244</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -649,10 +649,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>2.92019</v>
+        <v>1.034065</v>
       </c>
       <c r="C16">
-        <v>3.200000000000001</v>
+        <v>11.80000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -660,10 +660,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>2.58594</v>
+        <v>1.702565</v>
       </c>
       <c r="C17">
-        <v>0.1999999999999993</v>
+        <v>191.6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -671,10 +671,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>2.82469</v>
+        <v>1.53544</v>
       </c>
       <c r="C18">
-        <v>18.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -682,10 +682,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>2.25169</v>
+        <v>1.86969</v>
       </c>
       <c r="C19">
-        <v>0.1999999999999993</v>
+        <v>2.600000000000023</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -693,10 +693,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>2.15619</v>
+        <v>1.53544</v>
       </c>
       <c r="C20">
-        <v>9.800000000000004</v>
+        <v>0.8000000000000682</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -704,10 +704,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>2.227815</v>
+        <v>1.559315</v>
       </c>
       <c r="C21">
-        <v>3.399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -715,10 +715,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>2.084565</v>
+        <v>1.511565</v>
       </c>
       <c r="C22">
-        <v>0.1999999999999957</v>
+        <v>0.3999999999999773</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -726,7 +726,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>2.06069</v>
+        <v>1.893565</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>2.084565</v>
+        <v>1.845815</v>
       </c>
       <c r="C24">
-        <v>7.400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -748,10 +748,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>2.10844</v>
+        <v>1.82194</v>
       </c>
       <c r="C25">
-        <v>0.1999999999999957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -759,10 +759,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>2.01294</v>
+        <v>1.77419</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.1999999999999318</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -770,10 +770,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>2.10844</v>
+        <v>1.750315</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -781,10 +781,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>5.689690000000001</v>
+        <v>1.368315</v>
       </c>
       <c r="C28">
-        <v>60.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -792,10 +792,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>3.946815</v>
+        <v>1.67869</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.4000000000000909</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -803,10 +803,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>2.92019</v>
+        <v>2.01294</v>
       </c>
       <c r="C30">
-        <v>3.200000000000003</v>
+        <v>1.799999999999955</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -814,10 +814,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>2.29944</v>
+        <v>1.67869</v>
       </c>
       <c r="C31">
-        <v>2.799999999999997</v>
+        <v>0.3999999999999773</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -825,10 +825,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>2.275565</v>
+        <v>1.53544</v>
       </c>
       <c r="C32">
-        <v>3.200000000000003</v>
+        <v>1.800000000000068</v>
       </c>
     </row>
   </sheetData>
